--- a/coxaxle/src/test/resources/datasheets/AT_03_ValidateDealerAccountUI.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_03_ValidateDealerAccountUI.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
